--- a/Data Files/Search_Data_Mobile.xlsx
+++ b/Data Files/Search_Data_Mobile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidho\Katalon Studio\Start\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F29321-AB7E-43F2-A1BA-7AB3F4EFC0B6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A90980-CE13-47B0-B42A-33607F34A5E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3495" windowWidth="28800" windowHeight="10095" xr2:uid="{56648964-8086-4401-B8BD-AFCFF037A6DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56648964-8086-4401-B8BD-AFCFF037A6DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>Rugby</t>
   </si>
   <si>
-    <t>Diagnostic Testing</t>
-  </si>
-  <si>
     <t>Angmering</t>
   </si>
   <si>
@@ -156,13 +153,16 @@
     <t>Crown Thinning in PO12 2HE</t>
   </si>
   <si>
-    <t>Electric Boiler Repairs in Orkney</t>
-  </si>
-  <si>
     <t>PO12 2HE</t>
   </si>
   <si>
     <t>Blocked Sinks in Rugby</t>
+  </si>
+  <si>
+    <t>Electrician in Orkney</t>
+  </si>
+  <si>
+    <t>Garage/Vehicle Services &gt; Diagnostic Testing</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A7" sqref="A7:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,16 +539,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -560,27 +560,27 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
-      </c>
-      <c r="J1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -589,10 +589,10 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2">
         <v>600</v>
@@ -603,28 +603,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
       </c>
       <c r="I3">
         <v>800</v>
@@ -635,98 +635,98 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I4">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="J4">
-        <v>600</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I5">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J5">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I6">
+        <v>500</v>
+      </c>
+      <c r="J6">
         <v>700</v>
-      </c>
-      <c r="J6">
-        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Search_Data_Mobile.xlsx
+++ b/Data Files/Search_Data_Mobile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidho\Katalon Studio\Start\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A90980-CE13-47B0-B42A-33607F34A5E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1365247D-18E2-4FA5-BE81-AF0692903D80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56648964-8086-4401-B8BD-AFCFF037A6DE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Tree Surgeon</t>
   </si>
@@ -163,6 +163,33 @@
   </si>
   <si>
     <t>Garage/Vehicle Services &gt; Diagnostic Testing</t>
+  </si>
+  <si>
+    <t>Emulation</t>
+  </si>
+  <si>
+    <t>{"CHROME_DRIVER":{}}</t>
+  </si>
+  <si>
+    <t>Addendum</t>
+  </si>
+  <si>
+    <t>Last row resets the file back to the default condition</t>
+  </si>
+  <si>
+    <t>{"CHROME_DRIVER":{"mobileEmulation":{"deviceName":"iPhone X"}}}</t>
+  </si>
+  <si>
+    <t>,"orientation":"LANDSCAPE"</t>
+  </si>
+  <si>
+    <t>{"CHROME_DRIVER":{"mobileEmulation":{"deviceName":"Galaxy S5"}}}</t>
+  </si>
+  <si>
+    <t>{"CHROME_DRIVER":{"mobileEmulation":{"deviceName":"iPad"}}}</t>
+  </si>
+  <si>
+    <t>{"CHROME_DRIVER":{"mobileEmulation":{"deviceName":Pixel 2 XL"}}}</t>
   </si>
 </sst>
 </file>
@@ -198,11 +225,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D56B88-33E9-468B-853E-05EE5D8A6600}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,9 +563,10 @@
     <col min="8" max="8" width="53.5703125" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="93.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -568,8 +597,14 @@
       <c r="J1" t="s">
         <v>38</v>
       </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -600,8 +635,14 @@
       <c r="J2">
         <v>800</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -632,8 +673,11 @@
       <c r="J3">
         <v>1000</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -664,8 +708,11 @@
       <c r="J4">
         <v>900</v>
       </c>
+      <c r="K4" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -696,8 +743,11 @@
       <c r="J5">
         <v>600</v>
       </c>
+      <c r="K5" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -727,6 +777,12 @@
       </c>
       <c r="J6">
         <v>700</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Search_Data_Mobile.xlsx
+++ b/Data Files/Search_Data_Mobile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidho\Katalon Studio\Start\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidho\git\src\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1365247D-18E2-4FA5-BE81-AF0692903D80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35564841-40D1-4AE7-BE18-1CB2EE751127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56648964-8086-4401-B8BD-AFCFF037A6DE}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>tradeLocationVerification</t>
   </si>
   <si>
-    <t>Electrician</t>
-  </si>
-  <si>
     <t>Orkney</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>{"CHROME_DRIVER":{"mobileEmulation":{"deviceName":Pixel 2 XL"}}}</t>
+  </si>
+  <si>
+    <t>Shrewsbury</t>
   </si>
 </sst>
 </file>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D56B88-33E9-468B-853E-05EE5D8A6600}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,16 +568,16 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -589,45 +589,45 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
       <c r="K1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
       </c>
       <c r="I2">
         <v>600</v>
@@ -636,36 +636,36 @@
         <v>800</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
         <v>48</v>
-      </c>
-      <c r="L2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3">
         <v>800</v>
@@ -674,21 +674,21 @@
         <v>1000</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4">
         <v>700</v>
@@ -709,33 +709,33 @@
         <v>900</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5">
         <v>400</v>
@@ -744,33 +744,33 @@
         <v>600</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
         <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
       </c>
       <c r="I6">
         <v>500</v>
@@ -779,10 +779,10 @@
         <v>700</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Search_Data_Mobile.xlsx
+++ b/Data Files/Search_Data_Mobile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidho\git\src\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35564841-40D1-4AE7-BE18-1CB2EE751127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4997371-4CC6-4A2C-AD96-0EBB4D42BDFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56648964-8086-4401-B8BD-AFCFF037A6DE}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56648964-8086-4401-B8BD-AFCFF037A6DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -548,25 +548,25 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" customWidth="1"/>
+    <col min="2" max="2" width="19.3984375" customWidth="1"/>
+    <col min="3" max="3" width="30.59765625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="47.140625" customWidth="1"/>
-    <col min="8" max="8" width="53.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="93.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.59765625" customWidth="1"/>
+    <col min="6" max="6" width="15.1328125" customWidth="1"/>
+    <col min="7" max="7" width="47.1328125" customWidth="1"/>
+    <col min="8" max="8" width="53.59765625" customWidth="1"/>
+    <col min="9" max="9" width="18.73046875" customWidth="1"/>
+    <col min="10" max="10" width="13.59765625" customWidth="1"/>
+    <col min="11" max="11" width="93.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -604,7 +604,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -642,7 +642,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -677,7 +677,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -712,7 +712,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -747,7 +747,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
